--- a/main/job_suggestions/candidate_3.xlsx
+++ b/main/job_suggestions/candidate_3.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,6 +444,11 @@
           <t>score</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>reason</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +459,11 @@
       <c r="B2" t="n">
         <v>100</v>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>The job as an NLP engineer requires skills in NLP, PyTorch, Computer Vision, and Python, which align with your expertise in computer vision and NLP. Additionally, the job involves analyzing and preprocessing large-scale text data, which is a direct match to your experience in object detection and classification. The high score indicates a strong suitability for your skillset.</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -462,7 +472,12 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>The job of SDE Intern with a score of 64 is moderately suitable for the candidate. The candidate has experience in ReactJS, JavaScript, and web development, which aligns with the required skills. However, their projects do not directly involve MongoDB and NodeJS, which may have contributed to the moderate score. Overall, the candidate's experience makes them a potential fit for the role, but they may need some additional training in MongoDB and NodeJS.</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -472,7 +487,12 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>The job as a Frontend Engineer Intern requires skills in ReactJS, JavaScript, CSS, Frontend Development, and NextJS, which align with the candidate's experience in projects like the 'Website for the Literature Society' and 'LLMGuard'. The moderate score of 63 suggests that while the candidate possesses relevant skills, there may be other candidates with stronger qualifications or experiences.</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/main/job_suggestions/candidate_3.xlsx
+++ b/main/job_suggestions/candidate_3.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>reason</t>
         </is>
       </c>
@@ -461,37 +466,72 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>The job as an NLP engineer requires skills in NLP, PyTorch, Computer Vision, and Python, which align with your expertise in computer vision and NLP. Additionally, the job involves analyzing and preprocessing large-scale text data, which is a direct match to your experience in object detection and classification. The high score indicates a strong suitability for your skillset.</t>
+          <t>NLP Engineer (Remote): Collect and preprocess text corpora for language model training. Analyze data, develop and improve models. Skills: NLP, Pytorch, Computer Vision, Python.</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>The job as an NLP Engineer requires expertise in NLP, Pytorch, Computer Vision, and Python, which aligns perfectly with your skills and experience gained from multiple projects. Your experience in developing and improving models, coupled with your proficiency in Python, makes you an ideal fit for this role.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64</v>
+        <v>43.5</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The job of SDE Intern with a score of 64 is moderately suitable for the candidate. The candidate has experience in ReactJS, JavaScript, and web development, which aligns with the required skills. However, their projects do not directly involve MongoDB and NodeJS, which may have contributed to the moderate score. Overall, the candidate's experience makes them a potential fit for the role, but they may need some additional training in MongoDB and NodeJS.</t>
+          <t>Application Development: Front-end coding for a sweat amino acid analysis app under a Scrum Master. Skills: Flutter, Dart, Android/iOS, Firestore, Firebase Authentication, Cloud Storage/Messaging, Mobile app architecture/design, Git.</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>The job of Application Development has been given a moderate score of 43.5. This indicates that it is neither highly suitable nor unsuitable for the candidate. The candidate's projects demonstrate experience in backend development and website creation, but the job requires front-end coding for a mobile app. While there are some overlapping skills, there may be a gap in the candidate's experience with Flutter, Dart, and mobile app architecture/design.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>52</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>SDE Intern: Remote MERN Stack Developer Internship, responsible for designing and developing web/mobile applications using MongoDB, ExpressJS, ReactJS, and NodeJS. Additional tasks include code maintenance, scalability, feature development, and product enhancement suggestions. Skills required: MongoDB, ReactJS, JavaScript, Web Development, NodeJS.</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>The job has been given a moderate score because the candidate has experience working on web development projects using ReactJS, JavaScript, and Django Rest Framework. However, the job also requires skills in MongoDB, ExpressJS, and NodeJS which the candidate does not have experience with. Therefore, the job is neither suitable nor unsuitable for the candidate.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>63</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>The job as a Frontend Engineer Intern requires skills in ReactJS, JavaScript, CSS, Frontend Development, and NextJS, which align with the candidate's experience in projects like the 'Website for the Literature Society' and 'LLMGuard'. The moderate score of 63 suggests that while the candidate possesses relevant skills, there may be other candidates with stronger qualifications or experiences.</t>
+      <c r="B5" t="n">
+        <v>48</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Frontend Engineer Intern - Work in a team to ensure consistent web design and user experience, optimize web pages, and maintain brand consistency. Requires excellent communication skills and proficiency in ReactJS, JavaScript, CSS, and NextJS. 3-month evaluative unpaid internship with potential return offers.</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>The job as a Frontend Engineer Intern requires skills in ReactJS, JavaScript, CSS, and NextJS, which align with the candidate's experience in developing web applications using ReactJS and CSS. However, the moderate score suggests that while the candidate has relevant skills, there may be other candidates with stronger expertise in these areas.</t>
         </is>
       </c>
     </row>
